--- a/Douyin_videos.xlsx
+++ b/Douyin_videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguangxu/Desktop/PhD/Year 2/其他/王瑞Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinhao Wang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A8C23C-3AB0-6242-9AA9-EDC961EA76D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B48685-BED8-4E82-88DD-90D3C49BA643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19380" xr2:uid="{168A3243-DBBA-5245-B922-2872F62AE2FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{168A3243-DBBA-5245-B922-2872F62AE2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1162">
   <si>
     <t>title</t>
   </si>
@@ -3513,6 +3513,18 @@
   </si>
   <si>
     <t>cute baby</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.douyin.com/video/7433000800709840128</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7433000800709840128</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>muscle building, gym, discipline</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3652,9 +3664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3692,7 +3704,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3798,7 +3810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3940,7 +3952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3950,18 +3962,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F7D98F-C5EB-3444-BC6C-D44492DCA6DB}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.4609375" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" customWidth="1"/>
+    <col min="6" max="6" width="38.15234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5128,20 +5140,20 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>396</v>
+      <c r="B59" s="3" t="s">
+        <v>1159</v>
       </c>
       <c r="C59" t="s">
         <v>298</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>432</v>
+        <v>1160</v>
       </c>
       <c r="E59">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>918</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="60" spans="1:6">
